--- a/data/tables_fig_3.xlsx
+++ b/data/tables_fig_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexiscarteron/Downloads/submit/tables_figs_1_3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lyrgus\D O C\pubbli\icecom\community changes\altre analisi per risposta\tables_figs_1_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84FDDED-B4BC-E44A-81B5-729262243ACC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E8436A-91B7-467A-BA91-42F5CFD99682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fig3a_psem_coefficients_alpha" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,15 @@
     <sheet name="fig3c_psem_coefficients_beta" sheetId="2" r:id="rId3"/>
     <sheet name="fig3d_delta_bic_beta" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">fig3d_delta_bic_beta!$A$1:$E$26</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="433">
   <si>
     <t>All</t>
   </si>
@@ -1018,252 +1021,6 @@
     <t>0.0035</t>
   </si>
   <si>
-    <t>0.1313</t>
-  </si>
-  <si>
-    <t>0.125</t>
-  </si>
-  <si>
-    <t>0.0625</t>
-  </si>
-  <si>
-    <t>0.1289</t>
-  </si>
-  <si>
-    <t>0.3077</t>
-  </si>
-  <si>
-    <t>0.1056</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.008</t>
-  </si>
-  <si>
-    <t>0.0223</t>
-  </si>
-  <si>
-    <t>0.0126</t>
-  </si>
-  <si>
-    <t>0.0576</t>
-  </si>
-  <si>
-    <t>0.0198</t>
-  </si>
-  <si>
-    <t>0.1396</t>
-  </si>
-  <si>
-    <t>0.1982</t>
-  </si>
-  <si>
-    <t>0.1009</t>
-  </si>
-  <si>
-    <t>0.0514</t>
-  </si>
-  <si>
-    <t>0.0297</t>
-  </si>
-  <si>
-    <t>0.163</t>
-  </si>
-  <si>
-    <t>0.1934</t>
-  </si>
-  <si>
-    <t>0.0907</t>
-  </si>
-  <si>
-    <t>0.2608</t>
-  </si>
-  <si>
-    <t>0.3477</t>
-  </si>
-  <si>
-    <t>0.2749</t>
-  </si>
-  <si>
-    <t>0.0455</t>
-  </si>
-  <si>
-    <t>0.0492</t>
-  </si>
-  <si>
-    <t>0.0304</t>
-  </si>
-  <si>
-    <t>0.1323</t>
-  </si>
-  <si>
-    <t>0.1501</t>
-  </si>
-  <si>
-    <t>0.1385</t>
-  </si>
-  <si>
-    <t>0.0442</t>
-  </si>
-  <si>
-    <t>0.1099</t>
-  </si>
-  <si>
-    <t>0.159</t>
-  </si>
-  <si>
-    <t>0.1232</t>
-  </si>
-  <si>
-    <t>0.132</t>
-  </si>
-  <si>
-    <t>0.0187</t>
-  </si>
-  <si>
-    <t>0.0195</t>
-  </si>
-  <si>
-    <t>0.0102</t>
-  </si>
-  <si>
-    <t>0.0644</t>
-  </si>
-  <si>
-    <t>0.0538</t>
-  </si>
-  <si>
-    <t>0.0258</t>
-  </si>
-  <si>
-    <t>0.0628</t>
-  </si>
-  <si>
-    <t>0.1238</t>
-  </si>
-  <si>
-    <t>0.1356</t>
-  </si>
-  <si>
-    <t>0.1596</t>
-  </si>
-  <si>
-    <t>0.1941</t>
-  </si>
-  <si>
-    <t>0.2323</t>
-  </si>
-  <si>
-    <t>0.1892</t>
-  </si>
-  <si>
-    <t>0.1638</t>
-  </si>
-  <si>
-    <t>0.0471</t>
-  </si>
-  <si>
-    <t>0.0056</t>
-  </si>
-  <si>
-    <t>0.0633</t>
-  </si>
-  <si>
-    <t>0.0885</t>
-  </si>
-  <si>
-    <t>0.0292</t>
-  </si>
-  <si>
-    <t>0.1292</t>
-  </si>
-  <si>
-    <t>0.018</t>
-  </si>
-  <si>
-    <t>0.1142</t>
-  </si>
-  <si>
-    <t>0.1729</t>
-  </si>
-  <si>
-    <t>0.0274</t>
-  </si>
-  <si>
-    <t>0.0152</t>
-  </si>
-  <si>
-    <t>0.084</t>
-  </si>
-  <si>
-    <t>0.0668</t>
-  </si>
-  <si>
-    <t>0.0531</t>
-  </si>
-  <si>
-    <t>0.0349</t>
-  </si>
-  <si>
-    <t>0.1024</t>
-  </si>
-  <si>
-    <t>0.0245</t>
-  </si>
-  <si>
-    <t>0.0508</t>
-  </si>
-  <si>
-    <t>0.0237</t>
-  </si>
-  <si>
-    <t>0.0278</t>
-  </si>
-  <si>
-    <t>0.0313</t>
-  </si>
-  <si>
-    <t>0.0044</t>
-  </si>
-  <si>
-    <t>0.2391</t>
-  </si>
-  <si>
-    <t>0.2086</t>
-  </si>
-  <si>
-    <t>0.2786</t>
-  </si>
-  <si>
-    <t>0.0881</t>
-  </si>
-  <si>
-    <t>0.2751</t>
-  </si>
-  <si>
-    <t>0.3322</t>
-  </si>
-  <si>
-    <t>0.2674</t>
-  </si>
-  <si>
-    <t>0.2358</t>
-  </si>
-  <si>
-    <t>0.3698</t>
-  </si>
-  <si>
-    <t>0.2963</t>
-  </si>
-  <si>
-    <t>0.4023</t>
-  </si>
-  <si>
-    <t>0.2226</t>
-  </si>
-  <si>
     <t>model</t>
   </si>
   <si>
@@ -1517,6 +1274,57 @@
   </si>
   <si>
     <t>fung.q1.l~~sper.q1.l</t>
+  </si>
+  <si>
+    <t>beta.all.ani</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>beta.bact</t>
+  </si>
+  <si>
+    <t>beta.fung</t>
+  </si>
+  <si>
+    <t>~~beta.bact</t>
+  </si>
+  <si>
+    <t>~~beta.sper</t>
+  </si>
+  <si>
+    <t>~~beta.fung</t>
+  </si>
+  <si>
+    <t>~~ndvi.diff.lg</t>
+  </si>
+  <si>
+    <t>~~beta.all.ani</t>
+  </si>
+  <si>
+    <t>~~beta.npc.lg</t>
+  </si>
+  <si>
+    <t>variable1</t>
+  </si>
+  <si>
+    <t>variable2</t>
+  </si>
+  <si>
+    <t>ndvi.diff.lg~~beta.all.ani</t>
+  </si>
+  <si>
+    <t>ndvi.diff.lg~~beta.fung</t>
+  </si>
+  <si>
+    <t>ndvi.diff.lg~~beta.bact</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1334,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1661,8 +1469,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1842,6 +1656,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2003,54 +1823,64 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Calcolo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cella collegata" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Cella da controllare" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Colore 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Colore 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Colore 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Colore 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Colore 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Colore 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Neutrale" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Testo avviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Testo descrittivo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titolo" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titolo 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titolo 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titolo 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titolo 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Totale" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Valore non valido" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Valore valido" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2066,7 +1896,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2364,11 +2194,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2385,7 +2217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2399,10 +2231,10 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2416,10 +2248,10 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2433,10 +2265,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -2450,10 +2282,10 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -2467,10 +2299,10 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -2484,10 +2316,10 @@
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -2501,10 +2333,10 @@
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
@@ -2518,10 +2350,10 @@
         <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -2535,10 +2367,10 @@
         <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -2552,10 +2384,10 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -2569,10 +2401,10 @@
         <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -2586,10 +2418,10 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -2603,10 +2435,10 @@
         <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
@@ -2620,10 +2452,10 @@
         <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>61</v>
       </c>
@@ -2637,10 +2469,10 @@
         <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -2654,10 +2486,10 @@
         <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>68</v>
       </c>
@@ -2671,10 +2503,10 @@
         <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>72</v>
       </c>
@@ -2688,10 +2520,10 @@
         <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>76</v>
       </c>
@@ -2705,10 +2537,10 @@
         <v>79</v>
       </c>
       <c r="E20" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>80</v>
       </c>
@@ -2722,10 +2554,10 @@
         <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>84</v>
       </c>
@@ -2739,10 +2571,10 @@
         <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>88</v>
       </c>
@@ -2756,10 +2588,10 @@
         <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>92</v>
       </c>
@@ -2773,10 +2605,10 @@
         <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>96</v>
       </c>
@@ -2790,10 +2622,10 @@
         <v>99</v>
       </c>
       <c r="E25" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>100</v>
       </c>
@@ -2807,10 +2639,10 @@
         <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>104</v>
       </c>
@@ -2824,10 +2656,10 @@
         <v>107</v>
       </c>
       <c r="E27" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>108</v>
       </c>
@@ -2841,10 +2673,10 @@
         <v>111</v>
       </c>
       <c r="E28" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>112</v>
       </c>
@@ -2858,10 +2690,10 @@
         <v>115</v>
       </c>
       <c r="E29" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>116</v>
       </c>
@@ -2875,10 +2707,10 @@
         <v>119</v>
       </c>
       <c r="E30" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>120</v>
       </c>
@@ -2892,10 +2724,10 @@
         <v>123</v>
       </c>
       <c r="E31" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>124</v>
       </c>
@@ -2909,10 +2741,10 @@
         <v>127</v>
       </c>
       <c r="E32" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>128</v>
       </c>
@@ -2926,10 +2758,10 @@
         <v>131</v>
       </c>
       <c r="E33" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>132</v>
       </c>
@@ -2943,10 +2775,10 @@
         <v>135</v>
       </c>
       <c r="E34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>136</v>
       </c>
@@ -2960,10 +2792,10 @@
         <v>139</v>
       </c>
       <c r="E35" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>140</v>
       </c>
@@ -2977,10 +2809,10 @@
         <v>143</v>
       </c>
       <c r="E36" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>144</v>
       </c>
@@ -2994,10 +2826,10 @@
         <v>147</v>
       </c>
       <c r="E37" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>148</v>
       </c>
@@ -3011,10 +2843,10 @@
         <v>151</v>
       </c>
       <c r="E38" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>152</v>
       </c>
@@ -3028,10 +2860,10 @@
         <v>154</v>
       </c>
       <c r="E39" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>155</v>
       </c>
@@ -3045,10 +2877,10 @@
         <v>158</v>
       </c>
       <c r="E40" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>159</v>
       </c>
@@ -3062,10 +2894,10 @@
         <v>162</v>
       </c>
       <c r="E41" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>163</v>
       </c>
@@ -3079,10 +2911,10 @@
         <v>166</v>
       </c>
       <c r="E42" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>167</v>
       </c>
@@ -3096,10 +2928,10 @@
         <v>170</v>
       </c>
       <c r="E43" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>171</v>
       </c>
@@ -3113,10 +2945,10 @@
         <v>174</v>
       </c>
       <c r="E44" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>175</v>
       </c>
@@ -3130,10 +2962,10 @@
         <v>177</v>
       </c>
       <c r="E45" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>94</v>
       </c>
@@ -3147,10 +2979,10 @@
         <v>41</v>
       </c>
       <c r="E46" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>180</v>
       </c>
@@ -3164,10 +2996,10 @@
         <v>183</v>
       </c>
       <c r="E47" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>65</v>
       </c>
@@ -3181,10 +3013,10 @@
         <v>186</v>
       </c>
       <c r="E48" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>187</v>
       </c>
@@ -3198,10 +3030,10 @@
         <v>190</v>
       </c>
       <c r="E49" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>191</v>
       </c>
@@ -3215,10 +3047,10 @@
         <v>194</v>
       </c>
       <c r="E50" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>195</v>
       </c>
@@ -3232,10 +3064,10 @@
         <v>198</v>
       </c>
       <c r="E51" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>199</v>
       </c>
@@ -3249,10 +3081,10 @@
         <v>202</v>
       </c>
       <c r="E52" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>203</v>
       </c>
@@ -3266,10 +3098,10 @@
         <v>206</v>
       </c>
       <c r="E53" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>207</v>
       </c>
@@ -3283,10 +3115,10 @@
         <v>210</v>
       </c>
       <c r="E54" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>211</v>
       </c>
@@ -3300,10 +3132,10 @@
         <v>214</v>
       </c>
       <c r="E55" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>215</v>
       </c>
@@ -3317,10 +3149,10 @@
         <v>218</v>
       </c>
       <c r="E56" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>219</v>
       </c>
@@ -3334,10 +3166,10 @@
         <v>135</v>
       </c>
       <c r="E57" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>222</v>
       </c>
@@ -3351,10 +3183,10 @@
         <v>72</v>
       </c>
       <c r="E58" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>225</v>
       </c>
@@ -3368,10 +3200,10 @@
         <v>209</v>
       </c>
       <c r="E59" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>228</v>
       </c>
@@ -3385,10 +3217,10 @@
         <v>20</v>
       </c>
       <c r="E60" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>13</v>
       </c>
@@ -3402,10 +3234,10 @@
         <v>232</v>
       </c>
       <c r="E61" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>233</v>
       </c>
@@ -3419,10 +3251,10 @@
         <v>236</v>
       </c>
       <c r="E62" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>237</v>
       </c>
@@ -3436,10 +3268,10 @@
         <v>239</v>
       </c>
       <c r="E63" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>240</v>
       </c>
@@ -3453,10 +3285,10 @@
         <v>188</v>
       </c>
       <c r="E64" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>243</v>
       </c>
@@ -3470,10 +3302,10 @@
         <v>47</v>
       </c>
       <c r="E65" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>246</v>
       </c>
@@ -3487,10 +3319,10 @@
         <v>249</v>
       </c>
       <c r="E66" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>250</v>
       </c>
@@ -3504,10 +3336,10 @@
         <v>253</v>
       </c>
       <c r="E67" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>254</v>
       </c>
@@ -3521,10 +3353,10 @@
         <v>257</v>
       </c>
       <c r="E68" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>66</v>
       </c>
@@ -3538,10 +3370,10 @@
         <v>260</v>
       </c>
       <c r="E69" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>261</v>
       </c>
@@ -3555,10 +3387,10 @@
         <v>264</v>
       </c>
       <c r="E70" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>265</v>
       </c>
@@ -3572,10 +3404,10 @@
         <v>267</v>
       </c>
       <c r="E71" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>268</v>
       </c>
@@ -3589,10 +3421,10 @@
         <v>271</v>
       </c>
       <c r="E72" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>272</v>
       </c>
@@ -3606,10 +3438,10 @@
         <v>128</v>
       </c>
       <c r="E73" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>275</v>
       </c>
@@ -3623,10 +3455,10 @@
         <v>236</v>
       </c>
       <c r="E74" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>278</v>
       </c>
@@ -3640,10 +3472,10 @@
         <v>281</v>
       </c>
       <c r="E75" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>282</v>
       </c>
@@ -3657,10 +3489,10 @@
         <v>284</v>
       </c>
       <c r="E76" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>285</v>
       </c>
@@ -3674,10 +3506,10 @@
         <v>288</v>
       </c>
       <c r="E77" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>289</v>
       </c>
@@ -3691,10 +3523,10 @@
         <v>292</v>
       </c>
       <c r="E78" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>293</v>
       </c>
@@ -3708,10 +3540,10 @@
         <v>296</v>
       </c>
       <c r="E79" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>297</v>
       </c>
@@ -3725,10 +3557,10 @@
         <v>300</v>
       </c>
       <c r="E80" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>301</v>
       </c>
@@ -3742,10 +3574,10 @@
         <v>302</v>
       </c>
       <c r="E81" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>303</v>
       </c>
@@ -3759,10 +3591,10 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="E82" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>305</v>
       </c>
@@ -3776,10 +3608,10 @@
         <v>307</v>
       </c>
       <c r="E83" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>308</v>
       </c>
@@ -3793,10 +3625,10 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="E84" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>311</v>
       </c>
@@ -3810,10 +3642,10 @@
         <v>313</v>
       </c>
       <c r="E85" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -3827,10 +3659,10 @@
         <v>316</v>
       </c>
       <c r="E86" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>231</v>
       </c>
@@ -3844,10 +3676,10 @@
         <v>262</v>
       </c>
       <c r="E87" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>319</v>
       </c>
@@ -3861,10 +3693,10 @@
         <v>322</v>
       </c>
       <c r="E88" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>323</v>
       </c>
@@ -3878,10 +3710,10 @@
         <v>326</v>
       </c>
       <c r="E89" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>327</v>
       </c>
@@ -3895,7 +3727,7 @@
         <v>330</v>
       </c>
       <c r="E90" t="s">
-        <v>444</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -3911,37 +3743,37 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>413</v>
+        <v>331</v>
       </c>
       <c r="B1" t="s">
-        <v>414</v>
+        <v>332</v>
       </c>
       <c r="C1" t="s">
-        <v>415</v>
+        <v>333</v>
       </c>
       <c r="D1" t="s">
-        <v>416</v>
+        <v>334</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
-        <v>438</v>
+        <v>356</v>
       </c>
       <c r="C2">
         <v>21129.838318850499</v>
@@ -3950,15 +3782,15 @@
         <v>3.9603188504988802</v>
       </c>
       <c r="E2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="B3" t="s">
-        <v>439</v>
+        <v>357</v>
       </c>
       <c r="C3">
         <v>21126.189740178201</v>
@@ -3967,15 +3799,15 @@
         <v>0.31174017820012501</v>
       </c>
       <c r="E3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="B4" t="s">
-        <v>440</v>
+        <v>358</v>
       </c>
       <c r="C4">
         <v>21119.3092103856</v>
@@ -3984,15 +3816,15 @@
         <v>-6.5687896144008802</v>
       </c>
       <c r="E4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="B5" t="s">
-        <v>441</v>
+        <v>359</v>
       </c>
       <c r="C5">
         <v>21124.839789944799</v>
@@ -4001,15 +3833,15 @@
         <v>-1.0382100552014899</v>
       </c>
       <c r="E5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="B6" t="s">
-        <v>442</v>
+        <v>360</v>
       </c>
       <c r="C6">
         <v>21121.772889710301</v>
@@ -4018,15 +3850,15 @@
         <v>-4.1051102896999501</v>
       </c>
       <c r="E6" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="B7" t="s">
-        <v>443</v>
+        <v>361</v>
       </c>
       <c r="C7">
         <v>21166.198953262501</v>
@@ -4035,15 +3867,15 @@
         <v>40.320953262500602</v>
       </c>
       <c r="E7" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>445</v>
+        <v>363</v>
       </c>
       <c r="B8" t="s">
-        <v>438</v>
+        <v>356</v>
       </c>
       <c r="C8">
         <v>21131.9407489072</v>
@@ -4052,15 +3884,15 @@
         <v>6.0627489071994196</v>
       </c>
       <c r="E8" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>445</v>
+        <v>363</v>
       </c>
       <c r="B9" t="s">
-        <v>439</v>
+        <v>357</v>
       </c>
       <c r="C9">
         <v>21128.743612940201</v>
@@ -4069,15 +3901,15 @@
         <v>2.86561294020066</v>
       </c>
       <c r="E9" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>445</v>
+        <v>363</v>
       </c>
       <c r="B10" t="s">
-        <v>440</v>
+        <v>358</v>
       </c>
       <c r="C10">
         <v>21171.7109178418</v>
@@ -4086,15 +3918,15 @@
         <v>45.832917841798903</v>
       </c>
       <c r="E10" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>445</v>
+        <v>363</v>
       </c>
       <c r="B11" t="s">
-        <v>441</v>
+        <v>359</v>
       </c>
       <c r="C11">
         <v>21124.5515776844</v>
@@ -4103,15 +3935,15 @@
         <v>-1.32642231560021</v>
       </c>
       <c r="E11" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>445</v>
+        <v>363</v>
       </c>
       <c r="B12" t="s">
-        <v>442</v>
+        <v>360</v>
       </c>
       <c r="C12">
         <v>21119.300209724799</v>
@@ -4120,15 +3952,15 @@
         <v>-6.5777902752015498</v>
       </c>
       <c r="E12" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>445</v>
+        <v>363</v>
       </c>
       <c r="B13" t="s">
-        <v>443</v>
+        <v>361</v>
       </c>
       <c r="C13">
         <v>21158.7000666159</v>
@@ -4137,15 +3969,15 @@
         <v>32.822066615899502</v>
       </c>
       <c r="E13" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>446</v>
+        <v>364</v>
       </c>
       <c r="B14" t="s">
-        <v>438</v>
+        <v>356</v>
       </c>
       <c r="C14">
         <v>21123.911581179698</v>
@@ -4154,15 +3986,15 @@
         <v>-1.96641882030235</v>
       </c>
       <c r="E14" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>446</v>
+        <v>364</v>
       </c>
       <c r="B15" t="s">
-        <v>439</v>
+        <v>357</v>
       </c>
       <c r="C15">
         <v>21139.752216569301</v>
@@ -4171,15 +4003,15 @@
         <v>13.8742165693002</v>
       </c>
       <c r="E15" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>446</v>
+        <v>364</v>
       </c>
       <c r="B16" t="s">
-        <v>440</v>
+        <v>358</v>
       </c>
       <c r="C16">
         <v>21193.917284577099</v>
@@ -4188,15 +4020,15 @@
         <v>68.0392845770984</v>
       </c>
       <c r="E16" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>446</v>
+        <v>364</v>
       </c>
       <c r="B17" t="s">
-        <v>441</v>
+        <v>359</v>
       </c>
       <c r="C17">
         <v>21120.8098601651</v>
@@ -4205,15 +4037,15 @@
         <v>-5.0681398349006503</v>
       </c>
       <c r="E17" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>446</v>
+        <v>364</v>
       </c>
       <c r="B18" t="s">
-        <v>442</v>
+        <v>360</v>
       </c>
       <c r="C18">
         <v>21120.122338630499</v>
@@ -4222,15 +4054,15 @@
         <v>-5.7556613695014702</v>
       </c>
       <c r="E18" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>446</v>
+        <v>364</v>
       </c>
       <c r="B19" t="s">
-        <v>443</v>
+        <v>361</v>
       </c>
       <c r="C19">
         <v>21162.4734926903</v>
@@ -4239,15 +4071,15 @@
         <v>36.595492690299601</v>
       </c>
       <c r="E19" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>447</v>
+        <v>365</v>
       </c>
       <c r="B20" t="s">
-        <v>438</v>
+        <v>356</v>
       </c>
       <c r="C20">
         <v>21144.277038482702</v>
@@ -4256,15 +4088,15 @@
         <v>18.399038482701101</v>
       </c>
       <c r="E20" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>447</v>
+        <v>365</v>
       </c>
       <c r="B21" t="s">
-        <v>439</v>
+        <v>357</v>
       </c>
       <c r="C21">
         <v>21153.785369482299</v>
@@ -4273,15 +4105,15 @@
         <v>27.907369482298201</v>
       </c>
       <c r="E21" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>447</v>
+        <v>365</v>
       </c>
       <c r="B22" t="s">
-        <v>440</v>
+        <v>358</v>
       </c>
       <c r="C22">
         <v>21224.972680680399</v>
@@ -4290,15 +4122,15 @@
         <v>99.094680680398596</v>
       </c>
       <c r="E22" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>447</v>
+        <v>365</v>
       </c>
       <c r="B23" t="s">
-        <v>441</v>
+        <v>359</v>
       </c>
       <c r="C23">
         <v>21120.385139238399</v>
@@ -4307,15 +4139,15 @@
         <v>-5.4928607616020599</v>
       </c>
       <c r="E23" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>447</v>
+        <v>365</v>
       </c>
       <c r="B24" t="s">
-        <v>442</v>
+        <v>360</v>
       </c>
       <c r="C24">
         <v>21119.412746243899</v>
@@ -4324,15 +4156,15 @@
         <v>-6.4652537561014496</v>
       </c>
       <c r="E24" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>447</v>
+        <v>365</v>
       </c>
       <c r="B25" t="s">
-        <v>443</v>
+        <v>361</v>
       </c>
       <c r="C25">
         <v>21180.0622738116</v>
@@ -4341,15 +4173,15 @@
         <v>54.184273811599297</v>
       </c>
       <c r="E25" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>448</v>
+        <v>366</v>
       </c>
       <c r="B26" t="s">
-        <v>438</v>
+        <v>356</v>
       </c>
       <c r="C26">
         <v>21130.264749068301</v>
@@ -4358,15 +4190,15 @@
         <v>4.3867490683005599</v>
       </c>
       <c r="E26" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>448</v>
+        <v>366</v>
       </c>
       <c r="B27" t="s">
-        <v>440</v>
+        <v>358</v>
       </c>
       <c r="C27">
         <v>21140.624114247301</v>
@@ -4375,15 +4207,15 @@
         <v>14.7461142473003</v>
       </c>
       <c r="E27" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>448</v>
+        <v>366</v>
       </c>
       <c r="B28" t="s">
-        <v>441</v>
+        <v>359</v>
       </c>
       <c r="C28">
         <v>21119.407703426001</v>
@@ -4392,15 +4224,15 @@
         <v>-6.4702965739998</v>
       </c>
       <c r="E28" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>448</v>
+        <v>366</v>
       </c>
       <c r="B29" t="s">
-        <v>442</v>
+        <v>360</v>
       </c>
       <c r="C29">
         <v>21120.4915970822</v>
@@ -4409,15 +4241,15 @@
         <v>-5.3864029178003001</v>
       </c>
       <c r="E29" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>448</v>
+        <v>366</v>
       </c>
       <c r="B30" t="s">
-        <v>443</v>
+        <v>361</v>
       </c>
       <c r="C30">
         <v>21193.336616340599</v>
@@ -4426,15 +4258,15 @@
         <v>67.458616340598397</v>
       </c>
       <c r="E30" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>449</v>
+        <v>367</v>
       </c>
       <c r="B31" t="s">
-        <v>438</v>
+        <v>356</v>
       </c>
       <c r="C31">
         <v>21140.593947944599</v>
@@ -4443,15 +4275,15 @@
         <v>14.7159479445982</v>
       </c>
       <c r="E31" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>449</v>
+        <v>367</v>
       </c>
       <c r="B32" t="s">
-        <v>439</v>
+        <v>357</v>
       </c>
       <c r="C32">
         <v>21135.7032453998</v>
@@ -4460,15 +4292,15 @@
         <v>9.8252453997993108</v>
       </c>
       <c r="E32" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>449</v>
+        <v>367</v>
       </c>
       <c r="B33" t="s">
-        <v>440</v>
+        <v>358</v>
       </c>
       <c r="C33">
         <v>21120.520642953899</v>
@@ -4477,15 +4309,15 @@
         <v>-5.3573570461012396</v>
       </c>
       <c r="E33" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>449</v>
+        <v>367</v>
       </c>
       <c r="B34" t="s">
-        <v>441</v>
+        <v>359</v>
       </c>
       <c r="C34">
         <v>21125.415564113799</v>
@@ -4494,15 +4326,15 @@
         <v>-0.46243588620200199</v>
       </c>
       <c r="E34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>449</v>
+        <v>367</v>
       </c>
       <c r="B35" t="s">
-        <v>442</v>
+        <v>360</v>
       </c>
       <c r="C35">
         <v>21143.3415939404</v>
@@ -4511,15 +4343,15 @@
         <v>17.463593940399701</v>
       </c>
       <c r="E35" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>450</v>
+        <v>368</v>
       </c>
       <c r="B36" t="s">
-        <v>438</v>
+        <v>356</v>
       </c>
       <c r="C36">
         <v>21183.150473200501</v>
@@ -4528,15 +4360,15 @@
         <v>57.272473200500798</v>
       </c>
       <c r="E36" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>450</v>
+        <v>368</v>
       </c>
       <c r="B37" t="s">
-        <v>439</v>
+        <v>357</v>
       </c>
       <c r="C37">
         <v>21173.157443611799</v>
@@ -4545,15 +4377,15 @@
         <v>47.2794436117983</v>
       </c>
       <c r="E37" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>450</v>
+        <v>368</v>
       </c>
       <c r="B38" t="s">
-        <v>440</v>
+        <v>358</v>
       </c>
       <c r="C38">
         <v>21234.0839946409</v>
@@ -4562,15 +4394,15 @@
         <v>108.20599464089899</v>
       </c>
       <c r="E38" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>450</v>
+        <v>368</v>
       </c>
       <c r="B39" t="s">
-        <v>441</v>
+        <v>359</v>
       </c>
       <c r="C39">
         <v>21119.2988929024</v>
@@ -4579,15 +4411,15 @@
         <v>-6.5791070976010797</v>
       </c>
       <c r="E39" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>450</v>
+        <v>368</v>
       </c>
       <c r="B40" t="s">
-        <v>442</v>
+        <v>360</v>
       </c>
       <c r="C40">
         <v>21123.301225058902</v>
@@ -4596,15 +4428,15 @@
         <v>-2.5767749410988499</v>
       </c>
       <c r="E40" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>451</v>
+        <v>369</v>
       </c>
       <c r="B41" t="s">
-        <v>438</v>
+        <v>356</v>
       </c>
       <c r="C41">
         <v>21124.289840808699</v>
@@ -4613,15 +4445,15 @@
         <v>-1.58815919130211</v>
       </c>
       <c r="E41" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>451</v>
+        <v>369</v>
       </c>
       <c r="B42" t="s">
-        <v>440</v>
+        <v>358</v>
       </c>
       <c r="C42">
         <v>21198.8949839468</v>
@@ -4630,15 +4462,15 @@
         <v>73.016983946799897</v>
       </c>
       <c r="E42" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>451</v>
+        <v>369</v>
       </c>
       <c r="B43" t="s">
-        <v>441</v>
+        <v>359</v>
       </c>
       <c r="C43">
         <v>21120.5896386108</v>
@@ -4647,15 +4479,15 @@
         <v>-5.2883613892008698</v>
       </c>
       <c r="E43" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>451</v>
+        <v>369</v>
       </c>
       <c r="B44" t="s">
-        <v>442</v>
+        <v>360</v>
       </c>
       <c r="C44">
         <v>21126.717870592802</v>
@@ -4664,15 +4496,15 @@
         <v>0.83987059280116205</v>
       </c>
       <c r="E44" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>452</v>
+        <v>370</v>
       </c>
       <c r="B45" t="s">
-        <v>452</v>
+        <v>370</v>
       </c>
       <c r="C45">
         <v>21122.357313393601</v>
@@ -4681,15 +4513,15 @@
         <v>-3.52068660639998</v>
       </c>
       <c r="E45" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>453</v>
+        <v>371</v>
       </c>
       <c r="B46" t="s">
-        <v>453</v>
+        <v>371</v>
       </c>
       <c r="C46">
         <v>21120.452250410101</v>
@@ -4698,15 +4530,15 @@
         <v>-5.4257495899000796</v>
       </c>
       <c r="E46" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>454</v>
+        <v>372</v>
       </c>
       <c r="B47" t="s">
-        <v>454</v>
+        <v>372</v>
       </c>
       <c r="C47">
         <v>21119.646124020601</v>
@@ -4715,15 +4547,15 @@
         <v>-6.2318759793997698</v>
       </c>
       <c r="E47" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>455</v>
+        <v>373</v>
       </c>
       <c r="B48" t="s">
-        <v>455</v>
+        <v>373</v>
       </c>
       <c r="C48">
         <v>21120.459679400599</v>
@@ -4732,15 +4564,15 @@
         <v>-5.4183205994013397</v>
       </c>
       <c r="E48" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>456</v>
+        <v>374</v>
       </c>
       <c r="B49" t="s">
-        <v>456</v>
+        <v>374</v>
       </c>
       <c r="C49">
         <v>21122.458927886099</v>
@@ -4749,15 +4581,15 @@
         <v>-3.4190721139020801</v>
       </c>
       <c r="E49" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>457</v>
+        <v>375</v>
       </c>
       <c r="B50" t="s">
-        <v>457</v>
+        <v>375</v>
       </c>
       <c r="C50">
         <v>21131.047708265902</v>
@@ -4766,15 +4598,15 @@
         <v>5.1697082659011402</v>
       </c>
       <c r="E50" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>458</v>
+        <v>376</v>
       </c>
       <c r="B51" t="s">
-        <v>458</v>
+        <v>376</v>
       </c>
       <c r="C51">
         <v>21120.564877356301</v>
@@ -4783,15 +4615,15 @@
         <v>-5.3131226436999004</v>
       </c>
       <c r="E51" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>459</v>
+        <v>377</v>
       </c>
       <c r="B52" t="s">
-        <v>459</v>
+        <v>377</v>
       </c>
       <c r="C52">
         <v>21133.3507596245</v>
@@ -4800,15 +4632,15 @@
         <v>7.4727596244993002</v>
       </c>
       <c r="E52" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>460</v>
+        <v>378</v>
       </c>
       <c r="B53" t="s">
-        <v>460</v>
+        <v>378</v>
       </c>
       <c r="C53">
         <v>21127.556588654599</v>
@@ -4817,15 +4649,15 @@
         <v>1.67858865459857</v>
       </c>
       <c r="E53" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>461</v>
+        <v>379</v>
       </c>
       <c r="B54" t="s">
-        <v>461</v>
+        <v>379</v>
       </c>
       <c r="C54">
         <v>21132.1095472587</v>
@@ -4834,15 +4666,15 @@
         <v>6.2315472586997203</v>
       </c>
       <c r="E54" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>462</v>
+        <v>380</v>
       </c>
       <c r="B55" t="s">
-        <v>462</v>
+        <v>380</v>
       </c>
       <c r="C55">
         <v>21140.981682668302</v>
@@ -4851,15 +4683,15 @@
         <v>15.1036826683012</v>
       </c>
       <c r="E55" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>463</v>
+        <v>381</v>
       </c>
       <c r="B56" t="s">
-        <v>463</v>
+        <v>381</v>
       </c>
       <c r="C56">
         <v>21134.7588486354</v>
@@ -4868,15 +4700,15 @@
         <v>8.8808486353991594</v>
       </c>
       <c r="E56" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>464</v>
+        <v>382</v>
       </c>
       <c r="B57" t="s">
-        <v>464</v>
+        <v>382</v>
       </c>
       <c r="C57">
         <v>21151.3536332562</v>
@@ -4885,15 +4717,15 @@
         <v>25.475633256199199</v>
       </c>
       <c r="E57" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>465</v>
+        <v>383</v>
       </c>
       <c r="B58" t="s">
-        <v>465</v>
+        <v>383</v>
       </c>
       <c r="C58">
         <v>21119.732207425401</v>
@@ -4902,15 +4734,15 @@
         <v>-6.14579257459991</v>
       </c>
       <c r="E58" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>466</v>
+        <v>384</v>
       </c>
       <c r="B59" t="s">
-        <v>466</v>
+        <v>384</v>
       </c>
       <c r="C59">
         <v>21124.753120392601</v>
@@ -4919,15 +4751,15 @@
         <v>-1.1248796073996301</v>
       </c>
       <c r="E59" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>467</v>
+        <v>385</v>
       </c>
       <c r="B60" t="s">
-        <v>467</v>
+        <v>385</v>
       </c>
       <c r="C60">
         <v>21120.178617295998</v>
@@ -4936,15 +4768,15 @@
         <v>-5.6993827040023497</v>
       </c>
       <c r="E60" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>468</v>
+        <v>386</v>
       </c>
       <c r="B61" t="s">
-        <v>468</v>
+        <v>386</v>
       </c>
       <c r="C61">
         <v>21131.633397920301</v>
@@ -4953,15 +4785,15 @@
         <v>5.7553979203003101</v>
       </c>
       <c r="E61" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>469</v>
+        <v>387</v>
       </c>
       <c r="B62" t="s">
-        <v>469</v>
+        <v>387</v>
       </c>
       <c r="C62">
         <v>21123.012703356399</v>
@@ -4970,15 +4802,15 @@
         <v>-2.8652966436020502</v>
       </c>
       <c r="E62" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>470</v>
+        <v>388</v>
       </c>
       <c r="B63" t="s">
-        <v>470</v>
+        <v>388</v>
       </c>
       <c r="C63">
         <v>21255.2278380034</v>
@@ -4987,15 +4819,15 @@
         <v>129.34983800340001</v>
       </c>
       <c r="E63" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>471</v>
+        <v>389</v>
       </c>
       <c r="B64" t="s">
-        <v>471</v>
+        <v>389</v>
       </c>
       <c r="C64">
         <v>21300.168894091599</v>
@@ -5004,15 +4836,15 @@
         <v>174.290894091599</v>
       </c>
       <c r="E64" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>472</v>
+        <v>390</v>
       </c>
       <c r="B65" t="s">
-        <v>472</v>
+        <v>390</v>
       </c>
       <c r="C65">
         <v>21269.1383153795</v>
@@ -5021,15 +4853,15 @@
         <v>143.26031537949899</v>
       </c>
       <c r="E65" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>473</v>
+        <v>391</v>
       </c>
       <c r="B66" t="s">
-        <v>473</v>
+        <v>391</v>
       </c>
       <c r="C66">
         <v>21134.748941016798</v>
@@ -5038,15 +4870,15 @@
         <v>8.8709410167975893</v>
       </c>
       <c r="E66" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>474</v>
+        <v>392</v>
       </c>
       <c r="B67" t="s">
-        <v>474</v>
+        <v>392</v>
       </c>
       <c r="C67">
         <v>21119.523904385602</v>
@@ -5055,15 +4887,15 @@
         <v>-6.3540956143988296</v>
       </c>
       <c r="E67" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>475</v>
+        <v>393</v>
       </c>
       <c r="B68" t="s">
-        <v>475</v>
+        <v>393</v>
       </c>
       <c r="C68">
         <v>21353.284077836001</v>
@@ -5072,15 +4904,15 @@
         <v>227.40607783600001</v>
       </c>
       <c r="E68" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>476</v>
+        <v>394</v>
       </c>
       <c r="B69" t="s">
-        <v>476</v>
+        <v>394</v>
       </c>
       <c r="C69">
         <v>21120.922278394399</v>
@@ -5089,15 +4921,15 @@
         <v>-4.9557216056018696</v>
       </c>
       <c r="E69" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>477</v>
+        <v>395</v>
       </c>
       <c r="B70" t="s">
-        <v>477</v>
+        <v>395</v>
       </c>
       <c r="C70">
         <v>21119.7024822446</v>
@@ -5106,15 +4938,15 @@
         <v>-6.1755177554005103</v>
       </c>
       <c r="E70" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>478</v>
+        <v>396</v>
       </c>
       <c r="B71" t="s">
-        <v>478</v>
+        <v>396</v>
       </c>
       <c r="C71">
         <v>21119.289637165599</v>
@@ -5123,15 +4955,15 @@
         <v>-6.5883628344017797</v>
       </c>
       <c r="E71" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>479</v>
+        <v>397</v>
       </c>
       <c r="B72" t="s">
-        <v>479</v>
+        <v>397</v>
       </c>
       <c r="C72">
         <v>21151.9234192572</v>
@@ -5140,15 +4972,15 @@
         <v>26.045419257199701</v>
       </c>
       <c r="E72" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>480</v>
+        <v>398</v>
       </c>
       <c r="B73" t="s">
-        <v>480</v>
+        <v>398</v>
       </c>
       <c r="C73">
         <v>21223.265098513399</v>
@@ -5157,15 +4989,15 @@
         <v>97.387098513398101</v>
       </c>
       <c r="E73" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>481</v>
+        <v>399</v>
       </c>
       <c r="B74" t="s">
-        <v>481</v>
+        <v>399</v>
       </c>
       <c r="C74">
         <v>21147.905641749901</v>
@@ -5174,15 +5006,15 @@
         <v>22.027641749900798</v>
       </c>
       <c r="E74" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>482</v>
+        <v>400</v>
       </c>
       <c r="B75" t="s">
-        <v>482</v>
+        <v>400</v>
       </c>
       <c r="C75">
         <v>21181.9766516862</v>
@@ -5191,15 +5023,15 @@
         <v>56.098651686199403</v>
       </c>
       <c r="E75" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>483</v>
+        <v>401</v>
       </c>
       <c r="B76" t="s">
-        <v>483</v>
+        <v>401</v>
       </c>
       <c r="C76">
         <v>21125.2469380031</v>
@@ -5208,15 +5040,15 @@
         <v>-0.63106199690082598</v>
       </c>
       <c r="E76" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="B77" t="s">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="C77">
         <v>21155.903716096302</v>
@@ -5225,15 +5057,15 @@
         <v>30.025716096301</v>
       </c>
       <c r="E77" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>485</v>
+        <v>403</v>
       </c>
       <c r="B78" t="s">
-        <v>485</v>
+        <v>403</v>
       </c>
       <c r="C78">
         <v>21197.908097923901</v>
@@ -5242,15 +5074,15 @@
         <v>72.030097923900001</v>
       </c>
       <c r="E78" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>486</v>
+        <v>404</v>
       </c>
       <c r="B79" t="s">
-        <v>486</v>
+        <v>404</v>
       </c>
       <c r="C79">
         <v>21389.279043320101</v>
@@ -5259,15 +5091,15 @@
         <v>263.40104332009997</v>
       </c>
       <c r="E79" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>487</v>
+        <v>405</v>
       </c>
       <c r="B80" t="s">
-        <v>487</v>
+        <v>405</v>
       </c>
       <c r="C80">
         <v>21258.309089561899</v>
@@ -5276,15 +5108,15 @@
         <v>132.43108956189801</v>
       </c>
       <c r="E80" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>488</v>
+        <v>406</v>
       </c>
       <c r="B81" t="s">
-        <v>488</v>
+        <v>406</v>
       </c>
       <c r="C81">
         <v>21126.399130854799</v>
@@ -5293,15 +5125,15 @@
         <v>0.52113085479868504</v>
       </c>
       <c r="E81" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>489</v>
+        <v>407</v>
       </c>
       <c r="B82" t="s">
-        <v>489</v>
+        <v>407</v>
       </c>
       <c r="C82">
         <v>21119.469596292602</v>
@@ -5310,15 +5142,15 @@
         <v>-6.4084037073989704</v>
       </c>
       <c r="E82" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>490</v>
+        <v>408</v>
       </c>
       <c r="B83" t="s">
-        <v>490</v>
+        <v>408</v>
       </c>
       <c r="C83">
         <v>21346.563731330101</v>
@@ -5327,15 +5159,15 @@
         <v>220.68573133010099</v>
       </c>
       <c r="E83" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>491</v>
+        <v>409</v>
       </c>
       <c r="B84" t="s">
-        <v>491</v>
+        <v>409</v>
       </c>
       <c r="C84">
         <v>21136.719487203802</v>
@@ -5344,15 +5176,15 @@
         <v>10.841487203801099</v>
       </c>
       <c r="E84" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>492</v>
+        <v>410</v>
       </c>
       <c r="B85" t="s">
-        <v>492</v>
+        <v>410</v>
       </c>
       <c r="C85">
         <v>21135.063128078898</v>
@@ -5361,15 +5193,15 @@
         <v>9.1851280788978293</v>
       </c>
       <c r="E85" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>493</v>
+        <v>411</v>
       </c>
       <c r="B86" t="s">
-        <v>493</v>
+        <v>411</v>
       </c>
       <c r="C86">
         <v>21126.4387155283</v>
@@ -5378,15 +5210,15 @@
         <v>0.56071552829962501</v>
       </c>
       <c r="E86" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>494</v>
+        <v>412</v>
       </c>
       <c r="B87" t="s">
-        <v>494</v>
+        <v>412</v>
       </c>
       <c r="C87">
         <v>21119.373024167799</v>
@@ -5395,15 +5227,15 @@
         <v>-6.5049758322020397</v>
       </c>
       <c r="E87" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>495</v>
+        <v>413</v>
       </c>
       <c r="B88" t="s">
-        <v>495</v>
+        <v>413</v>
       </c>
       <c r="C88">
         <v>21175.702529316401</v>
@@ -5412,15 +5244,15 @@
         <v>49.824529316400003</v>
       </c>
       <c r="E88" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>496</v>
+        <v>414</v>
       </c>
       <c r="B89" t="s">
-        <v>496</v>
+        <v>414</v>
       </c>
       <c r="C89">
         <v>21142.209367273099</v>
@@ -5429,15 +5261,15 @@
         <v>16.331367273098301</v>
       </c>
       <c r="E89" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>497</v>
+        <v>415</v>
       </c>
       <c r="B90" t="s">
-        <v>497</v>
+        <v>415</v>
       </c>
       <c r="C90">
         <v>21183.939120567898</v>
@@ -5446,7 +5278,7 @@
         <v>58.061120567897902</v>
       </c>
       <c r="E90" t="s">
-        <v>444</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -5456,500 +5288,737 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>328</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>416</v>
       </c>
       <c r="C2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>334</v>
+        <v>336</v>
+      </c>
+      <c r="D2">
+        <v>0.1162</v>
+      </c>
+      <c r="E2">
+        <v>0.1313</v>
+      </c>
+      <c r="F2">
+        <v>0.125</v>
+      </c>
+      <c r="G2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>335</v>
+        <v>416</v>
       </c>
       <c r="C3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3">
+        <v>0.12889999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="F3">
+        <v>0.1056</v>
+      </c>
+      <c r="G3">
+        <v>0.15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E4">
+        <v>2.23E-2</v>
+      </c>
+      <c r="F4">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="G4">
+        <v>1.26E-2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D5">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="E5">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="G5">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D6">
+        <v>0.16009999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.1396</v>
+      </c>
+      <c r="F6">
+        <v>0.19819999999999999</v>
+      </c>
+      <c r="G6">
+        <v>0.1009</v>
+      </c>
+      <c r="H6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D7">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="E7">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="F7">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="G7">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>420</v>
+      </c>
+      <c r="C8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D8">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.19339999999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.16009999999999999</v>
+      </c>
+      <c r="G8">
+        <v>9.0700000000000003E-2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D9">
+        <v>0.26079999999999998</v>
+      </c>
+      <c r="E9">
+        <v>0.34770000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.27489999999999998</v>
+      </c>
+      <c r="G9">
+        <v>5.5800000000000002E-2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>421</v>
+      </c>
+      <c r="C10" t="s">
+        <v>340</v>
+      </c>
+      <c r="D10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E10">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="F10">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="G10">
+        <v>3.04E-2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C11" t="s">
+        <v>342</v>
+      </c>
+      <c r="D11">
+        <v>0.1323</v>
+      </c>
+      <c r="E11">
+        <v>0.15010000000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.13850000000000001</v>
+      </c>
+      <c r="G11">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>336</v>
       </c>
-      <c r="D3" t="s">
-        <v>337</v>
-      </c>
-      <c r="E3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C12" t="s">
         <v>338</v>
       </c>
-      <c r="B4" t="s">
-        <v>339</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D12">
+        <v>0.1099</v>
+      </c>
+      <c r="E12">
+        <v>0.159</v>
+      </c>
+      <c r="F12">
+        <v>0.1232</v>
+      </c>
+      <c r="G12">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="H12" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C13" t="s">
         <v>340</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D13">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="E13">
+        <v>1.95E-2</v>
+      </c>
+      <c r="F13">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="G13">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>336</v>
+      </c>
+      <c r="C14" t="s">
+        <v>342</v>
+      </c>
+      <c r="D14">
+        <v>5.3800000000000001E-2</v>
+      </c>
+      <c r="E14">
+        <v>2.58E-2</v>
+      </c>
+      <c r="F14">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="G14">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>422</v>
+      </c>
+      <c r="C15" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D15">
+        <v>0.12379999999999999</v>
+      </c>
+      <c r="E15">
+        <v>8.0799999999999997E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.1356</v>
+      </c>
+      <c r="G15">
+        <v>0.15959999999999999</v>
+      </c>
+      <c r="H15" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>424</v>
+      </c>
+      <c r="C16" t="s">
+        <v>423</v>
+      </c>
+      <c r="D16">
+        <v>0.19409999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.23230000000000001</v>
+      </c>
+      <c r="F16">
+        <v>0.18920000000000001</v>
+      </c>
+      <c r="G16">
+        <v>0.1638</v>
+      </c>
+      <c r="H16" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D17" s="6">
+        <v>4.7100000000000003E-2</v>
+      </c>
+      <c r="E17" s="6">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="F17" s="6">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="G17" s="6">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D18" s="6">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="E18" s="6">
+        <v>2.92E-2</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.12920000000000001</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.13850000000000001</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.1142</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.1729</v>
+      </c>
+      <c r="G19" s="6">
+        <v>2.12E-2</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>427</v>
+      </c>
+      <c r="C20" t="s">
+        <v>426</v>
+      </c>
+      <c r="D20">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="E20">
+        <v>1.52E-2</v>
+      </c>
+      <c r="F20">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="G20">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>427</v>
+      </c>
+      <c r="C21" t="s">
+        <v>424</v>
+      </c>
+      <c r="D21">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="E21">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F21">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="G21">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
-        <v>342</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B22" t="s">
+        <v>427</v>
+      </c>
+      <c r="C22" t="s">
+        <v>422</v>
+      </c>
+      <c r="D22">
+        <v>3.49E-2</v>
+      </c>
+      <c r="E22">
+        <v>0.1024</v>
+      </c>
+      <c r="F22">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="G22">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>427</v>
+      </c>
+      <c r="C23" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>320</v>
-      </c>
-      <c r="B6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C6" t="s">
-        <v>344</v>
-      </c>
-      <c r="D6" t="s">
-        <v>345</v>
-      </c>
-      <c r="E6" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>347</v>
-      </c>
-      <c r="E7" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>348</v>
-      </c>
-      <c r="B8" t="s">
-        <v>349</v>
-      </c>
-      <c r="C8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D8" t="s">
-        <v>350</v>
-      </c>
-      <c r="E8" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>351</v>
-      </c>
-      <c r="B9" t="s">
-        <v>352</v>
-      </c>
-      <c r="C9" t="s">
-        <v>353</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" t="s">
-        <v>354</v>
-      </c>
-      <c r="C10" t="s">
-        <v>355</v>
-      </c>
-      <c r="D10" t="s">
-        <v>356</v>
-      </c>
-      <c r="E10" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>357</v>
-      </c>
-      <c r="B11" t="s">
-        <v>358</v>
-      </c>
-      <c r="C11" t="s">
-        <v>359</v>
-      </c>
-      <c r="D11" t="s">
-        <v>360</v>
-      </c>
-      <c r="E11" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>361</v>
-      </c>
-      <c r="B12" t="s">
-        <v>362</v>
-      </c>
-      <c r="C12" t="s">
-        <v>363</v>
-      </c>
-      <c r="D12" t="s">
-        <v>364</v>
-      </c>
-      <c r="E12" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>365</v>
-      </c>
-      <c r="B13" t="s">
-        <v>366</v>
-      </c>
-      <c r="C13" t="s">
-        <v>367</v>
-      </c>
-      <c r="D13" t="s">
-        <v>368</v>
-      </c>
-      <c r="E13" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>369</v>
-      </c>
-      <c r="B14" t="s">
-        <v>370</v>
-      </c>
-      <c r="C14" t="s">
-        <v>371</v>
-      </c>
-      <c r="D14" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>372</v>
-      </c>
-      <c r="B15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C15" t="s">
-        <v>373</v>
-      </c>
-      <c r="D15" t="s">
-        <v>374</v>
-      </c>
-      <c r="E15" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>375</v>
-      </c>
-      <c r="B16" t="s">
-        <v>376</v>
-      </c>
-      <c r="C16" t="s">
-        <v>377</v>
-      </c>
-      <c r="D16" t="s">
-        <v>378</v>
-      </c>
-      <c r="E16" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>379</v>
-      </c>
-      <c r="B17" t="s">
-        <v>380</v>
-      </c>
-      <c r="C17" t="s">
-        <v>381</v>
-      </c>
-      <c r="D17" t="s">
-        <v>248</v>
-      </c>
-      <c r="E17" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>382</v>
-      </c>
-      <c r="B18" t="s">
-        <v>383</v>
-      </c>
-      <c r="C18" t="s">
-        <v>384</v>
-      </c>
-      <c r="D18" t="s">
-        <v>385</v>
-      </c>
-      <c r="E18" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>359</v>
-      </c>
-      <c r="B19" t="s">
-        <v>386</v>
-      </c>
-      <c r="C19" t="s">
-        <v>387</v>
-      </c>
-      <c r="D19" t="s">
-        <v>214</v>
-      </c>
-      <c r="E19" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>388</v>
-      </c>
-      <c r="B20" t="s">
-        <v>389</v>
-      </c>
-      <c r="C20" t="s">
-        <v>225</v>
-      </c>
-      <c r="D20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>381</v>
-      </c>
-      <c r="B21" t="s">
-        <v>390</v>
-      </c>
-      <c r="C21" t="s">
-        <v>391</v>
-      </c>
-      <c r="D21" t="s">
-        <v>392</v>
-      </c>
-      <c r="E21" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>393</v>
-      </c>
-      <c r="B22" t="s">
-        <v>394</v>
-      </c>
-      <c r="C22" t="s">
-        <v>395</v>
-      </c>
-      <c r="D22" t="s">
-        <v>396</v>
-      </c>
-      <c r="E22" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>397</v>
-      </c>
-      <c r="B23" t="s">
-        <v>398</v>
-      </c>
-      <c r="C23" t="s">
-        <v>399</v>
-      </c>
-      <c r="D23" t="s">
-        <v>400</v>
-      </c>
-      <c r="E23" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>401</v>
+      <c r="D23">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="E23">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="F23">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="G23">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="C24" t="s">
-        <v>403</v>
-      </c>
-      <c r="D24" t="s">
-        <v>404</v>
-      </c>
-      <c r="E24" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>405</v>
+        <v>426</v>
+      </c>
+      <c r="D24">
+        <v>0.23910000000000001</v>
+      </c>
+      <c r="E24">
+        <v>0.20860000000000001</v>
+      </c>
+      <c r="F24">
+        <v>0.27860000000000001</v>
+      </c>
+      <c r="G24">
+        <v>8.8099999999999998E-2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="C25" t="s">
-        <v>407</v>
-      </c>
-      <c r="D25" t="s">
-        <v>408</v>
-      </c>
-      <c r="E25" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>409</v>
+        <v>426</v>
+      </c>
+      <c r="D25">
+        <v>0.27510000000000001</v>
+      </c>
+      <c r="E25">
+        <v>0.3322</v>
+      </c>
+      <c r="F25">
+        <v>0.26740000000000003</v>
+      </c>
+      <c r="G25">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="H25" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C26" t="s">
-        <v>411</v>
-      </c>
-      <c r="D26" t="s">
-        <v>412</v>
-      </c>
-      <c r="E26" t="s">
-        <v>444</v>
+        <v>422</v>
+      </c>
+      <c r="D26">
+        <v>0.36980000000000002</v>
+      </c>
+      <c r="E26">
+        <v>0.29630000000000001</v>
+      </c>
+      <c r="F26">
+        <v>0.40229999999999999</v>
+      </c>
+      <c r="G26">
+        <v>0.22259999999999999</v>
+      </c>
+      <c r="H26" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>413</v>
+        <v>331</v>
       </c>
       <c r="B1" t="s">
-        <v>414</v>
+        <v>332</v>
       </c>
       <c r="C1" t="s">
-        <v>415</v>
+        <v>333</v>
       </c>
       <c r="D1" t="s">
-        <v>416</v>
+        <v>334</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>417</v>
+        <v>335</v>
       </c>
       <c r="B2" t="s">
-        <v>418</v>
+        <v>336</v>
       </c>
       <c r="C2">
         <v>50244.415743591497</v>
@@ -5958,15 +6027,15 @@
         <v>86.257743591493593</v>
       </c>
       <c r="E2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>417</v>
+        <v>335</v>
       </c>
       <c r="B3" t="s">
-        <v>420</v>
+        <v>338</v>
       </c>
       <c r="C3">
         <v>50230.386562075299</v>
@@ -5975,15 +6044,15 @@
         <v>72.2285620752955</v>
       </c>
       <c r="E3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>417</v>
+        <v>335</v>
       </c>
       <c r="B4" t="s">
-        <v>422</v>
+        <v>340</v>
       </c>
       <c r="C4">
         <v>50152.6378234937</v>
@@ -5992,15 +6061,15 @@
         <v>-5.5201765063029598</v>
       </c>
       <c r="E4" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>417</v>
+        <v>335</v>
       </c>
       <c r="B5" t="s">
-        <v>424</v>
+        <v>342</v>
       </c>
       <c r="C5">
         <v>50222.403315093397</v>
@@ -6009,15 +6078,15 @@
         <v>64.245315093394296</v>
       </c>
       <c r="E5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>425</v>
+        <v>343</v>
       </c>
       <c r="B6" t="s">
-        <v>420</v>
+        <v>338</v>
       </c>
       <c r="C6">
         <v>50345.985398098601</v>
@@ -6026,15 +6095,15 @@
         <v>187.827398098598</v>
       </c>
       <c r="E6" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>425</v>
+        <v>343</v>
       </c>
       <c r="B7" t="s">
-        <v>422</v>
+        <v>340</v>
       </c>
       <c r="C7">
         <v>50150.038474717898</v>
@@ -6043,15 +6112,15 @@
         <v>-8.1195252821053092</v>
       </c>
       <c r="E7" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>425</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s">
-        <v>424</v>
+        <v>342</v>
       </c>
       <c r="C8">
         <v>50464.628940518902</v>
@@ -6060,15 +6129,15 @@
         <v>306.470940518899</v>
       </c>
       <c r="E8" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>426</v>
+        <v>344</v>
       </c>
       <c r="B9" t="s">
-        <v>420</v>
+        <v>338</v>
       </c>
       <c r="C9">
         <v>50475.9211120986</v>
@@ -6077,15 +6146,15 @@
         <v>317.76311209859699</v>
       </c>
       <c r="E9" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>426</v>
+        <v>344</v>
       </c>
       <c r="B10" t="s">
-        <v>422</v>
+        <v>340</v>
       </c>
       <c r="C10">
         <v>50151.923924285897</v>
@@ -6094,15 +6163,15 @@
         <v>-6.2340757141064396</v>
       </c>
       <c r="E10" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>426</v>
+        <v>344</v>
       </c>
       <c r="B11" t="s">
-        <v>424</v>
+        <v>342</v>
       </c>
       <c r="C11">
         <v>50260.546226416103</v>
@@ -6111,15 +6180,15 @@
         <v>102.3882264161</v>
       </c>
       <c r="E11" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>427</v>
+        <v>345</v>
       </c>
       <c r="B12" t="s">
-        <v>420</v>
+        <v>338</v>
       </c>
       <c r="C12">
         <v>50154.694707602401</v>
@@ -6128,15 +6197,15 @@
         <v>-3.46329239760234</v>
       </c>
       <c r="E12" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>427</v>
+        <v>345</v>
       </c>
       <c r="B13" t="s">
-        <v>422</v>
+        <v>340</v>
       </c>
       <c r="C13">
         <v>50151.032320128703</v>
@@ -6145,15 +6214,15 @@
         <v>-7.1256798713002398</v>
       </c>
       <c r="E13" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>427</v>
+        <v>345</v>
       </c>
       <c r="B14" t="s">
-        <v>424</v>
+        <v>342</v>
       </c>
       <c r="C14">
         <v>50168.213120322202</v>
@@ -6162,15 +6231,15 @@
         <v>10.055120322198499</v>
       </c>
       <c r="E14" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>428</v>
+        <v>346</v>
       </c>
       <c r="B15" t="s">
-        <v>428</v>
+        <v>346</v>
       </c>
       <c r="C15">
         <v>50165.625495369502</v>
@@ -6179,15 +6248,15 @@
         <v>7.4674953694993702</v>
       </c>
       <c r="E15" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="B16" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="C16">
         <v>50149.528743261202</v>
@@ -6196,15 +6265,15 @@
         <v>-8.6292567388008994</v>
       </c>
       <c r="E16" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>430</v>
+        <v>348</v>
       </c>
       <c r="B17" t="s">
-        <v>430</v>
+        <v>348</v>
       </c>
       <c r="C17">
         <v>50185.446153894802</v>
@@ -6213,15 +6282,15 @@
         <v>27.288153894798601</v>
       </c>
       <c r="E17" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>431</v>
+        <v>349</v>
       </c>
       <c r="B18" t="s">
-        <v>431</v>
+        <v>349</v>
       </c>
       <c r="C18">
         <v>50159.468651302603</v>
@@ -6230,15 +6299,15 @@
         <v>1.3106513025995801</v>
       </c>
       <c r="E18" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>432</v>
+        <v>350</v>
       </c>
       <c r="B19" t="s">
-        <v>432</v>
+        <v>350</v>
       </c>
       <c r="C19">
         <v>50176.687018140001</v>
@@ -6247,15 +6316,15 @@
         <v>18.529018139997799</v>
       </c>
       <c r="E19" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>433</v>
+        <v>351</v>
       </c>
       <c r="B20" t="s">
-        <v>433</v>
+        <v>351</v>
       </c>
       <c r="C20">
         <v>50454.284656489697</v>
@@ -6264,15 +6333,15 @@
         <v>296.12665648969403</v>
       </c>
       <c r="E20" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>434</v>
+        <v>352</v>
       </c>
       <c r="B21" t="s">
-        <v>434</v>
+        <v>352</v>
       </c>
       <c r="C21">
         <v>50554.151319912497</v>
@@ -6281,15 +6350,15 @@
         <v>395.99331991249301</v>
       </c>
       <c r="E21" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>435</v>
+        <v>353</v>
       </c>
       <c r="B22" t="s">
-        <v>435</v>
+        <v>353</v>
       </c>
       <c r="C22">
         <v>50727.353190236499</v>
@@ -6298,15 +6367,15 @@
         <v>569.19519023649605</v>
       </c>
       <c r="E22" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>436</v>
+        <v>354</v>
       </c>
       <c r="B23" t="s">
-        <v>436</v>
+        <v>354</v>
       </c>
       <c r="C23">
         <v>50926.038596621802</v>
@@ -6315,7 +6384,58 @@
         <v>767.88059662179899</v>
       </c>
       <c r="E23" t="s">
-        <v>419</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>430</v>
+      </c>
+      <c r="B24" t="s">
+        <v>430</v>
+      </c>
+      <c r="C24">
+        <v>50182.225021800899</v>
+      </c>
+      <c r="D24">
+        <v>24.067021800896299</v>
+      </c>
+      <c r="E24" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>431</v>
+      </c>
+      <c r="B25" t="s">
+        <v>431</v>
+      </c>
+      <c r="C25">
+        <v>50183.945435802503</v>
+      </c>
+      <c r="D25">
+        <v>25.787435802500099</v>
+      </c>
+      <c r="E25" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>432</v>
+      </c>
+      <c r="B26" t="s">
+        <v>432</v>
+      </c>
+      <c r="C26">
+        <v>50169.403774026301</v>
+      </c>
+      <c r="D26">
+        <v>11.245774026297999</v>
+      </c>
+      <c r="E26" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
